--- a/data/trans_bre/P8_2_R-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P8_2_R-Clase-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 9,58</t>
+          <t>-0,77; 10,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,88; 3,64</t>
+          <t>-6,16; 4,02</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,95; 4,7</t>
+          <t>-4,77; 5,17</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,01; 6,47</t>
+          <t>0,0; 6,45</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 105,46</t>
+          <t>-5,77; 104,09</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-42,71; 34,29</t>
+          <t>-39,23; 37,26</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-38,07; 49,75</t>
+          <t>-34,94; 56,98</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 92,1</t>
+          <t>-0,24; 89,56</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,68; 3,64</t>
+          <t>-4,23; 4,05</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,61; 4,92</t>
+          <t>-4,78; 5,02</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 6,74</t>
+          <t>-3,18; 6,09</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 7,01</t>
+          <t>-1,41; 6,59</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-44,68; 57,2</t>
+          <t>-40,93; 68,07</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-35,91; 57,7</t>
+          <t>-36,23; 56,26</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-25,66; 81,87</t>
+          <t>-25,98; 75,78</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-5,44; 75,0</t>
+          <t>-10,39; 68,22</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,44; 19,23</t>
+          <t>3,83; 18,64</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,89; 14,95</t>
+          <t>1,69; 15,63</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,07; 19,37</t>
+          <t>3,44; 18,84</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-55,36; 10,91</t>
+          <t>-55,83; 11,65</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>30,06; 168,96</t>
+          <t>27,61; 162,14</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,76; 95,28</t>
+          <t>7,34; 92,07</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>18,13; 139,79</t>
+          <t>20,18; 135,83</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-71,79; 65,54</t>
+          <t>-70,69; 71,32</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 4,9</t>
+          <t>-2,49; 4,85</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,04; 1,0</t>
+          <t>-6,56; 1,01</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,35; 2,2</t>
+          <t>-4,35; 2,53</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-14,27; -2,04</t>
+          <t>-13,7; -1,94</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-11,58; 27,92</t>
+          <t>-12,1; 27,53</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-29,76; 5,87</t>
+          <t>-31,89; 6,74</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-24,04; 14,48</t>
+          <t>-24,0; 17,58</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-66,19; -10,67</t>
+          <t>-66,05; -10,61</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 9,44</t>
+          <t>-0,7; 9,74</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>10,93; 20,89</t>
+          <t>10,68; 20,72</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,91; 12,4</t>
+          <t>3,19; 12,38</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 11,0</t>
+          <t>-1,7; 11,04</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,15; 71,1</t>
+          <t>-3,23; 76,86</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>53,4; 140,59</t>
+          <t>53,73; 143,13</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>12,64; 70,76</t>
+          <t>12,93; 68,98</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-6,85; 58,04</t>
+          <t>-6,73; 58,09</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>25,72; 32,21</t>
+          <t>25,63; 32,11</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>27,25; 34,86</t>
+          <t>26,75; 35,1</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>25,45; 32,21</t>
+          <t>25,34; 32,38</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>27,11; 33,87</t>
+          <t>26,96; 33,94</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>446,44; 1766,05</t>
+          <t>470,14; 1762,54</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>395,84; 1646,64</t>
+          <t>374,27; 1793,78</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>554,32; 3870,68</t>
+          <t>558,5; 3666,87</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>571,69; 3263,41</t>
+          <t>593,48; 3340,3</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>7,44; 11,14</t>
+          <t>7,57; 11,18</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>8,14; 12,11</t>
+          <t>8,05; 12,12</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,96; 10,05</t>
+          <t>6,16; 10,06</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-20,01; 7,06</t>
+          <t>-20,05; 6,77</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>50,05; 84,72</t>
+          <t>51,58; 85,57</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>49,75; 82,35</t>
+          <t>48,25; 82,99</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>37,32; 73,05</t>
+          <t>39,43; 73,95</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-48,4; 46,82</t>
+          <t>-48,06; 44,92</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P8_2_R-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P8_2_R-Clase-trans_bre.xlsx
@@ -1110,7 +1110,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
